--- a/evaluations/MMLU-professional_medicine/gaokerena-v1/ans.xlsx
+++ b/evaluations/MMLU-professional_medicine/gaokerena-v1/ans.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="30">
   <si>
     <t xml:space="preserve">no.1</t>
   </si>
@@ -58,13 +58,58 @@
     <t xml:space="preserve">not_agreed</t>
   </si>
   <si>
+    <t xml:space="preserve">[B,C,D]</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,C,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B,C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[C,D]</t>
   </si>
   <si>
     <t xml:space="preserve">multiple_choice</t>
   </si>
   <si>
+    <t xml:space="preserve">[A,C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B,C,D]</t>
+  </si>
+  <si>
     <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B,C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D]</t>
   </si>
 </sst>
 </file>
@@ -318,7 +363,7 @@
   <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F159" activeCellId="0" sqref="F159"/>
+      <selection pane="topLeft" activeCell="H222" activeCellId="0" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,11 +410,14 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -388,16 +436,19 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -409,13 +460,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,11 +488,14 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -457,34 +514,40 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,11 +566,14 @@
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,11 +592,14 @@
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,11 +618,14 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,11 +644,14 @@
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,11 +670,14 @@
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,11 +696,14 @@
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -641,11 +722,14 @@
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,11 +748,14 @@
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,11 +774,14 @@
       <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,11 +800,14 @@
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +826,14 @@
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,13 +850,16 @@
         <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,13 +876,16 @@
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,34 +904,40 @@
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,27 +945,30 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
@@ -871,34 +982,40 @@
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -917,34 +1034,40 @@
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,11 +1086,14 @@
       <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,59 +1110,68 @@
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,11 +1190,14 @@
       <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,11 +1216,14 @@
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -1101,16 +1242,19 @@
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
@@ -1124,22 +1268,25 @@
       <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -1147,11 +1294,14 @@
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
+      <c r="F36" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,11 +1320,14 @@
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -1193,11 +1346,14 @@
       <c r="E38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>10</v>
@@ -1214,13 +1370,16 @@
         <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
@@ -1237,13 +1396,16 @@
         <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
@@ -1262,11 +1424,14 @@
       <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,11 +1450,14 @@
       <c r="E42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,11 +1476,14 @@
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
@@ -1331,11 +1502,14 @@
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,11 +1528,14 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,16 +1549,19 @@
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,39 +1580,45 @@
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
@@ -1446,11 +1632,14 @@
       <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,19 +1650,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
@@ -1492,11 +1684,14 @@
       <c r="E51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,11 +1710,14 @@
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,13 +1734,16 @@
         <v>8</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,11 +1762,14 @@
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,16 +1788,19 @@
       <c r="E55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
@@ -1607,11 +1814,14 @@
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,11 +1840,14 @@
       <c r="E57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,19 +1858,22 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,13 +1890,16 @@
         <v>8</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,16 +1913,19 @@
         <v>10</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>10</v>
@@ -1722,22 +1944,25 @@
       <c r="E61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
@@ -1745,11 +1970,14 @@
       <c r="E62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,11 +1996,14 @@
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,19 +2022,22 @@
       <c r="E64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
@@ -1814,16 +2048,19 @@
       <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>10</v>
@@ -1837,16 +2074,19 @@
       <c r="E66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>10</v>
@@ -1858,13 +2098,16 @@
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,11 +2126,14 @@
       <c r="E68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,11 +2152,14 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,11 +2178,14 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,11 +2204,14 @@
       <c r="E71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
@@ -1975,16 +2230,19 @@
       <c r="E72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>8</v>
@@ -1993,16 +2251,19 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,11 +2282,14 @@
       <c r="E74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,11 +2308,14 @@
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,11 +2334,14 @@
       <c r="E76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,10 +2349,10 @@
         <v>10</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>8</v>
@@ -2090,11 +2360,14 @@
       <c r="E77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,7 +2375,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>9</v>
@@ -2113,11 +2386,14 @@
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,19 +2404,22 @@
         <v>10</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,19 +2438,22 @@
       <c r="E80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
@@ -2182,11 +2464,14 @@
       <c r="E81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,11 +2490,14 @@
       <c r="E82" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,11 +2516,14 @@
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>9</v>
@@ -2251,34 +2542,40 @@
       <c r="E84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,22 +2583,25 @@
         <v>10</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>12</v>
+      <c r="F86" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,21 +2615,24 @@
         <v>10</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>10</v>
@@ -2343,19 +2646,22 @@
       <c r="E88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -2366,11 +2672,14 @@
       <c r="E89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>8</v>
@@ -2389,11 +2698,14 @@
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,19 +2716,22 @@
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,16 +2745,19 @@
         <v>10</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>9</v>
@@ -2458,11 +2776,14 @@
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,11 +2802,14 @@
       <c r="E94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>9</v>
@@ -2504,34 +2828,40 @@
       <c r="E95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,11 +2880,14 @@
       <c r="E97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,16 +2901,19 @@
         <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,45 +2921,51 @@
         <v>8</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,42 +2976,48 @@
         <v>10</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,22 +3025,25 @@
         <v>10</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,11 +3062,14 @@
       <c r="E104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,22 +3077,25 @@
         <v>10</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,11 +3114,14 @@
       <c r="E106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,11 +3140,14 @@
       <c r="E107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,11 +3166,14 @@
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,11 +3192,14 @@
       <c r="E109" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,11 +3218,14 @@
       <c r="E110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,22 +3233,25 @@
         <v>9</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>12</v>
+      <c r="F111" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>9</v>
@@ -2893,13 +3268,16 @@
         <v>10</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>10</v>
@@ -2916,13 +3294,16 @@
         <v>10</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,16 +3317,19 @@
         <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,11 +3348,14 @@
       <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,16 +3369,19 @@
         <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,16 +3395,19 @@
         <v>10</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>10</v>
@@ -3033,11 +3426,14 @@
       <c r="E118" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>10</v>
@@ -3056,11 +3452,14 @@
       <c r="E119" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,11 +3478,14 @@
       <c r="E120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,18 +3502,21 @@
         <v>8</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>9</v>
@@ -3125,11 +3530,14 @@
       <c r="E122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,22 +3545,25 @@
         <v>8</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,11 +3582,14 @@
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,34 +3608,40 @@
       <c r="E125" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3652,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>9</v>
@@ -3240,11 +3660,14 @@
       <c r="E127" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,11 +3686,14 @@
       <c r="E128" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,11 +3712,14 @@
       <c r="E129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,16 +3733,19 @@
         <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,11 +3764,14 @@
       <c r="E131" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,11 +3790,14 @@
       <c r="E132" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,22 +3816,25 @@
       <c r="E133" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>8</v>
@@ -3401,11 +3842,14 @@
       <c r="E134" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,11 +3868,14 @@
       <c r="E135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,11 +3894,14 @@
       <c r="E136" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,11 +3920,14 @@
       <c r="E137" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,39 +3946,45 @@
       <c r="E138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>12</v>
+      <c r="F139" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>10</v>
@@ -3534,16 +3993,19 @@
         <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>10</v>
@@ -3562,11 +4024,14 @@
       <c r="E141" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,16 +4045,19 @@
         <v>10</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>8</v>
@@ -3608,11 +4076,14 @@
       <c r="E143" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,11 +4102,14 @@
       <c r="E144" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>8</v>
@@ -3652,13 +4126,16 @@
         <v>8</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,22 +4143,25 @@
         <v>9</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,22 +4169,25 @@
         <v>8</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,16 +4201,19 @@
         <v>8</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +4221,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>10</v>
@@ -3746,11 +4232,14 @@
       <c r="E149" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,16 +4253,19 @@
         <v>9</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,22 +4273,25 @@
         <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,16 +4305,19 @@
         <v>8</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,11 +4336,14 @@
       <c r="E153" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,11 +4362,14 @@
       <c r="E154" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,11 +4388,14 @@
       <c r="E155" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,34 +4414,40 @@
       <c r="E156" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>12</v>
+      <c r="F157" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,13 +4464,16 @@
         <v>10</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,10 +4481,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>10</v>
@@ -3976,11 +4492,14 @@
       <c r="E159" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,11 +4518,14 @@
       <c r="E160" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,21 +4539,24 @@
         <v>10</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>8</v>
@@ -4043,13 +4568,16 @@
         <v>9</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>10</v>
@@ -4068,11 +4596,14 @@
       <c r="E163" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,13 +4620,16 @@
         <v>10</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,11 +4648,14 @@
       <c r="E165" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,11 +4674,14 @@
       <c r="E166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,11 +4700,14 @@
       <c r="E167" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,11 +4726,14 @@
       <c r="E168" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,22 +4752,25 @@
       <c r="E169" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>8</v>
@@ -4229,11 +4778,14 @@
       <c r="E170" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>10</v>
@@ -4252,11 +4804,14 @@
       <c r="E171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,11 +4830,14 @@
       <c r="E172" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,22 +4845,25 @@
         <v>10</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,19 +4874,22 @@
         <v>10</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,22 +4908,25 @@
       <c r="E175" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>8</v>
@@ -4367,22 +4934,25 @@
       <c r="E176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>12</v>
+      <c r="F176" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>9</v>
@@ -4390,11 +4960,14 @@
       <c r="E177" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,11 +4986,14 @@
       <c r="E178" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,11 +5012,14 @@
       <c r="E179" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,11 +5038,14 @@
       <c r="E180" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,11 +5064,14 @@
       <c r="E181" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,11 +5090,14 @@
       <c r="E182" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,11 +5116,14 @@
       <c r="E183" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,11 +5142,14 @@
       <c r="E184" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,21 +5163,24 @@
         <v>8</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
@@ -4597,11 +5194,14 @@
       <c r="E186" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,11 +5220,14 @@
       <c r="E187" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>9</v>
@@ -4643,16 +5246,19 @@
       <c r="E188" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>9</v>
@@ -4666,11 +5272,14 @@
       <c r="E189" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,11 +5298,14 @@
       <c r="E190" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,7 +5313,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>9</v>
@@ -4712,11 +5324,14 @@
       <c r="E191" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,18 +5348,21 @@
         <v>9</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>8</v>
@@ -4758,11 +5376,14 @@
       <c r="E193" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,19 +5394,22 @@
         <v>10</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,11 +5428,14 @@
       <c r="E195" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="F195" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,21 +5449,24 @@
         <v>10</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="F196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>8</v>
@@ -4848,21 +5478,24 @@
         <v>8</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>10</v>
@@ -4871,18 +5504,21 @@
         <v>10</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>9</v>
@@ -4896,11 +5532,14 @@
       <c r="E199" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,13 +5556,16 @@
         <v>10</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>10</v>
@@ -4942,11 +5584,14 @@
       <c r="E201" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,34 +5610,40 @@
       <c r="E202" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>8</v>
@@ -5011,11 +5662,14 @@
       <c r="E204" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,11 +5688,14 @@
       <c r="E205" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>8</v>
@@ -5057,11 +5714,14 @@
       <c r="E206" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,11 +5740,14 @@
       <c r="E207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,16 +5761,19 @@
         <v>10</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>9</v>
@@ -5124,13 +5790,16 @@
         <v>10</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,11 +5818,14 @@
       <c r="E210" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,11 +5844,14 @@
       <c r="E211" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>10</v>
@@ -5195,11 +5870,14 @@
       <c r="E212" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,11 +5896,14 @@
       <c r="E213" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>8</v>
@@ -5241,11 +5922,14 @@
       <c r="E214" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,11 +5948,14 @@
       <c r="E215" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F215" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,7 +5966,7 @@
         <v>10</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>9</v>
@@ -5287,11 +5974,14 @@
       <c r="E216" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F216" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,11 +6000,14 @@
       <c r="E217" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +6018,7 @@
         <v>8</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>8</v>
@@ -5333,16 +6026,19 @@
       <c r="E218" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>8</v>
@@ -5356,34 +6052,40 @@
       <c r="E219" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="F219" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,11 +6104,14 @@
       <c r="E221" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F221" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,10 +6130,13 @@
       <c r="E222" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="F222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5448,11 +6156,14 @@
       <c r="E223" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F223" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,16 +6177,19 @@
         <v>9</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F224" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,7 +6200,7 @@
         <v>8</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>8</v>
@@ -5494,22 +6208,25 @@
       <c r="E225" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="F225" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>8</v>
@@ -5517,80 +6234,92 @@
       <c r="E226" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="F226" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F227" s="5" t="s">
-        <v>12</v>
+      <c r="F227" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F228" s="5" t="s">
-        <v>12</v>
+      <c r="F228" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,10 +6338,13 @@
       <c r="E230" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="F230" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5621,45 +6353,51 @@
         <v>9</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,11 +6416,14 @@
       <c r="E233" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,16 +6442,19 @@
       <c r="E234" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F234" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>10</v>
@@ -5724,16 +6468,19 @@
       <c r="E235" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>9</v>
@@ -5747,34 +6494,40 @@
       <c r="E236" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F236" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F237" s="5" t="s">
-        <v>12</v>
+      <c r="F237" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,16 +6541,19 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,36 +6570,42 @@
         <v>8</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F240" s="5" t="s">
-        <v>12</v>
+      <c r="F240" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +6616,7 @@
         <v>8</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>8</v>
@@ -5862,11 +6624,14 @@
       <c r="E241" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F241" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,11 +6650,14 @@
       <c r="E242" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="F242" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,16 +6671,19 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="F243" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,10 +6702,13 @@
       <c r="E244" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="F244" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5954,11 +6728,14 @@
       <c r="E245" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="F245" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,19 +6746,22 @@
         <v>10</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,16 +6775,19 @@
         <v>9</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="F247" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,11 +6806,14 @@
       <c r="E248" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="F248" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,11 +6832,14 @@
       <c r="E249" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F249" s="5" t="s">
+      <c r="F249" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,7 +6847,7 @@
         <v>8</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>9</v>
@@ -6069,16 +6858,19 @@
       <c r="E250" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="F250" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>10</v>
@@ -6087,21 +6879,24 @@
         <v>10</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>9</v>
@@ -6115,11 +6910,14 @@
       <c r="E252" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,11 +6936,14 @@
       <c r="E253" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="F253" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,16 +6962,19 @@
       <c r="E254" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="F254" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>10</v>
@@ -6184,11 +6988,14 @@
       <c r="E255" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="F255" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,16 +7009,19 @@
         <v>10</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F256" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,11 +7040,14 @@
       <c r="E257" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="F257" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,16 +7066,19 @@
       <c r="E258" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F258" s="5" t="s">
+      <c r="F258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>10</v>
@@ -6276,11 +7092,14 @@
       <c r="E259" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F259" s="5" t="s">
+      <c r="F259" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,11 +7118,14 @@
       <c r="E260" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="F260" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,11 +7144,14 @@
       <c r="E261" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="F261" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,11 +7170,14 @@
       <c r="E262" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="F262" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,11 +7196,14 @@
       <c r="E263" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="F263" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,19 +7214,22 @@
         <v>9</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="F264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,11 +7248,14 @@
       <c r="E265" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F265" s="5" t="s">
+      <c r="F265" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>9</v>
@@ -6437,11 +7274,14 @@
       <c r="E266" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F266" s="5" t="s">
+      <c r="F266" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,11 +7300,14 @@
       <c r="E267" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,16 +7321,19 @@
         <v>8</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F268" s="5" t="s">
+      <c r="F268" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,45 +7341,51 @@
         <v>9</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F270" s="5" t="s">
-        <v>12</v>
+      <c r="F270" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,11 +7404,14 @@
       <c r="E271" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F271" s="5" t="s">
+      <c r="F271" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,11 +7430,14 @@
       <c r="E272" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F272" s="5" t="s">
+      <c r="F272" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +7448,7 @@
         <v>9</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>9</v>
@@ -6598,11 +7456,14 @@
       <c r="E273" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F273" s="5" t="s">
+      <c r="F273" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
